--- a/MSO5000 LCR/Settings/Settings_Default.xlsx
+++ b/MSO5000 LCR/Settings/Settings_Default.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leonz\source\repos\MSO5000-LCR-meter\MSO5000 LCR\Settings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A2DD17-0F99-4580-B91D-BEBE985B5B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C877DF5-1A39-4E30-9DD3-D3D849E6ED0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3380" yWindow="3380" windowWidth="16800" windowHeight="9670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2030" yWindow="1810" windowWidth="16800" windowHeight="9670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Rounded</t>
   </si>
@@ -45,6 +45,15 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>Debug_Calc</t>
+  </si>
+  <si>
+    <t>Number_Display</t>
+  </si>
+  <si>
+    <t>normal</t>
   </si>
 </sst>
 </file>
@@ -384,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -416,6 +425,22 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
